--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/27_Düzce_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/27_Düzce_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7CFE75-3E23-41AB-A4E0-EF533DAD1837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9024B2-0DA4-447A-AC53-3596E10C4D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{A9FCEE57-CBC7-45A9-8E59-60A327264AF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{85404A42-25D7-4575-B96E-62DAB9034251}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="141" r:id="rId1"/>
@@ -791,17 +791,17 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1FC17E94-D755-45BC-81B6-E75CAF4EAB00}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CD152CBD-CD4D-4FBD-8185-4737934467C3}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{4547A5A4-8200-4F62-873B-1826C2D0D54B}"/>
-    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{34BF2AF0-41D8-4707-A765-C8238A8CE4B2}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{DA5967DF-27A1-4E7B-8141-5F1C82C04EE0}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{B2047D72-ABD3-4E3F-B256-2C40553906D2}"/>
-    <cellStyle name="Normal 3 2 2" xfId="7" xr:uid="{5658E086-F7E2-48A1-9D4B-D36717A88531}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{3B6375EE-FA8D-464C-91F1-7C4A2B9F2D2D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{03DB74E7-B472-418E-A3DE-15B7D3F22DC7}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{5635B1C0-0C56-4486-A858-39ADC0060A51}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{04B29988-2344-4ADA-86BD-EA404D72886F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F8873D6D-581B-4319-BC1E-FB395851B859}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2585B360-32AD-4F0C-828B-48BFD026BD34}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{EADB1449-1C50-433D-99BB-EB9A7B2CFD3B}"/>
+    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{8B159CDA-F597-412F-B2E8-9CD8DCD38827}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{AFB50E6D-E227-45C9-8957-193AAA073940}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{A5971CFE-55EB-48C9-B4F2-71AADEE1394D}"/>
+    <cellStyle name="Normal 3 2 2" xfId="7" xr:uid="{7B227693-8CDB-4CCE-BF5E-EAC58D8A2A0B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{A613FD96-EB4F-47A2-BC04-18C890217947}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{E119728E-AEB5-4D63-B0D9-A4010D538D93}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{76F6699F-755C-4F92-B6A5-A29E85AE0D84}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{834A0D31-DCCD-456F-A79F-E519BAD8B86A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F0B990-49AB-4E35-8BD4-D9AA523C27E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3159325B-C3AB-46AA-B86E-8934CC245A0E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2422,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384660C5-4981-42C7-BAA9-5F12BCC3D842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC090629-48D9-40F9-AC93-D90712056DB8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3681,7 +3681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48946175-6B41-4AC7-8126-26E8C6BFF571}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172DFE1-71BC-4CEB-B313-3E63669D433B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4942,7 +4942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F76C207-6CE1-461F-A604-DC713027378F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C59C70-3BFD-476C-9BB0-584DFDD255D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6201,7 +6201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F50E44-875C-4847-84FA-A85AF1C1B7AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEDEA84-5FD4-4B2B-96E5-37DC9CE7FB60}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7454,7 +7454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC346276-37A1-4E8B-A2C0-0D144211AAE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B37C2F5-FCED-48A1-901E-35C191B96648}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
